--- a/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E8E917-9C33-473E-A157-205FE745BE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8394CF3C-CEE7-4188-822A-38C72C1F729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E931F761-40FF-49F6-B99C-1EF41E8B029C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEB64BA0-5457-443F-9DC9-E160D15967B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="265">
-  <si>
-    <t>Población según la frecuencia de consumición de refrescos con azucar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="274">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,730 +104,757 @@
     <t>19,17%</t>
   </si>
   <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1242,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9370E1-4FA3-4AC6-82C3-7E730A482EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B46F71-1793-432B-BA8F-1F597F87FF44}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1833,7 +1860,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -1842,13 +1869,13 @@
         <v>81899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -1857,13 +1884,13 @@
         <v>177787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1905,13 @@
         <v>55823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -1893,13 +1920,13 @@
         <v>58280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -1908,13 +1935,13 @@
         <v>114103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,7 +1997,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1982,13 +2009,13 @@
         <v>299060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>321</v>
@@ -1997,13 +2024,13 @@
         <v>358058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
@@ -2012,13 +2039,13 @@
         <v>657118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2060,13 @@
         <v>144936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -2048,13 +2075,13 @@
         <v>164794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -2063,7 +2090,7 @@
         <v>309730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>123</v>
@@ -2186,13 +2213,13 @@
         <v>175292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -2201,13 +2228,13 @@
         <v>138524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>297</v>
@@ -2216,13 +2243,13 @@
         <v>313816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2305,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2290,13 +2317,13 @@
         <v>213161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>237</v>
@@ -2305,13 +2332,13 @@
         <v>262797</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -2320,13 +2347,13 @@
         <v>475958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2368,13 @@
         <v>116496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>118</v>
@@ -2356,13 +2383,13 @@
         <v>124881</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>220</v>
@@ -2371,13 +2398,13 @@
         <v>241377</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2419,13 @@
         <v>144760</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -2407,13 +2434,13 @@
         <v>122591</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>247</v>
@@ -2422,13 +2449,13 @@
         <v>267351</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2470,13 @@
         <v>149549</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -2458,13 +2485,13 @@
         <v>133443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>267</v>
@@ -2473,13 +2500,13 @@
         <v>282992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2521,13 @@
         <v>132106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -2509,13 +2536,13 @@
         <v>133628</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>254</v>
@@ -2524,13 +2551,13 @@
         <v>265734</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2613,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2598,13 +2625,13 @@
         <v>311874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>367</v>
@@ -2613,13 +2640,13 @@
         <v>415524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -2628,13 +2655,13 @@
         <v>727398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2676,13 @@
         <v>149093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>171</v>
@@ -2664,13 +2691,13 @@
         <v>188339</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>318</v>
@@ -2679,13 +2706,13 @@
         <v>337433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2727,13 @@
         <v>156233</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>145</v>
@@ -2715,13 +2742,13 @@
         <v>151163</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>304</v>
@@ -2730,13 +2757,13 @@
         <v>307395</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2778,13 @@
         <v>158801</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>146</v>
@@ -2766,13 +2793,13 @@
         <v>152266</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>307</v>
@@ -2781,13 +2808,13 @@
         <v>311067</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2829,13 @@
         <v>148677</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -2817,13 +2844,13 @@
         <v>126382</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>271</v>
@@ -2832,13 +2859,13 @@
         <v>275059</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2933,13 @@
         <v>1067371</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>1176</v>
@@ -2921,13 +2948,13 @@
         <v>1300804</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>2197</v>
@@ -2936,13 +2963,13 @@
         <v>2368175</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2984,13 @@
         <v>533743</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="H35" s="7">
         <v>554</v>
@@ -2972,13 +2999,13 @@
         <v>588165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>1055</v>
@@ -2987,13 +3014,13 @@
         <v>1121907</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3035,13 @@
         <v>617773</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>580</v>
@@ -3023,13 +3050,13 @@
         <v>603212</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>1171</v>
@@ -3038,13 +3065,13 @@
         <v>1220985</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3086,13 @@
         <v>625919</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>550</v>
@@ -3074,13 +3101,13 @@
         <v>562697</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>1149</v>
@@ -3089,13 +3116,13 @@
         <v>1188616</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3137,13 @@
         <v>526300</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>460</v>
@@ -3125,13 +3152,13 @@
         <v>467390</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>957</v>
@@ -3140,13 +3167,13 @@
         <v>993690</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3229,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8394CF3C-CEE7-4188-822A-38C72C1F729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD22CA3-3539-4A4F-8782-5D03B7B59E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEB64BA0-5457-443F-9DC9-E160D15967B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB1CF049-5E37-434F-A754-A237B76C74E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="274">
-  <si>
-    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="273">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -74,28 +74,28 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>19,17%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>18,82%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,28 +164,28 @@
     <t>20,17%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,667 +194,664 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1269,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B46F71-1793-432B-BA8F-1F597F87FF44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC339B16-9B44-4056-BB7D-291900670268}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1941,7 +1938,7 @@
         <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,7 +1994,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2009,13 +2006,13 @@
         <v>299060</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>321</v>
@@ -2024,13 +2021,13 @@
         <v>358058</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
@@ -2039,13 +2036,13 @@
         <v>657118</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,13 +2057,13 @@
         <v>144936</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -2075,13 +2072,13 @@
         <v>164794</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -2090,13 +2087,13 @@
         <v>309730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2108,13 @@
         <v>201483</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -2126,13 +2123,13 @@
         <v>201287</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>375</v>
@@ -2141,13 +2138,13 @@
         <v>402770</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,10 +2162,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -2180,10 +2177,10 @@
         <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>360</v>
@@ -2192,13 +2189,13 @@
         <v>378428</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2210,13 @@
         <v>175292</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -2228,13 +2225,13 @@
         <v>138524</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>297</v>
@@ -2243,13 +2240,13 @@
         <v>313816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,7 +2302,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2317,13 +2314,13 @@
         <v>213161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>237</v>
@@ -2332,13 +2329,13 @@
         <v>262797</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -2347,13 +2344,13 @@
         <v>475958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2365,13 @@
         <v>116496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>118</v>
@@ -2383,13 +2380,13 @@
         <v>124881</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>220</v>
@@ -2398,13 +2395,13 @@
         <v>241377</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2416,13 @@
         <v>144760</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -2434,13 +2431,13 @@
         <v>122591</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>247</v>
@@ -2449,13 +2446,13 @@
         <v>267351</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2467,13 @@
         <v>149549</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -2485,13 +2482,13 @@
         <v>133443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>267</v>
@@ -2500,13 +2497,13 @@
         <v>282992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2518,13 @@
         <v>132106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -2536,13 +2533,13 @@
         <v>133628</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>254</v>
@@ -2551,13 +2548,13 @@
         <v>265734</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2610,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2625,13 +2622,13 @@
         <v>311874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>367</v>
@@ -2640,13 +2637,13 @@
         <v>415524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -2655,13 +2652,13 @@
         <v>727398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2673,13 @@
         <v>149093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>171</v>
@@ -2691,13 +2688,13 @@
         <v>188339</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>318</v>
@@ -2706,13 +2703,13 @@
         <v>337433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2724,13 @@
         <v>156233</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>145</v>
@@ -2742,13 +2739,13 @@
         <v>151163</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>304</v>
@@ -2757,13 +2754,13 @@
         <v>307395</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2775,13 @@
         <v>158801</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>146</v>
@@ -2793,13 +2790,13 @@
         <v>152266</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>307</v>
@@ -2808,13 +2805,13 @@
         <v>311067</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2826,13 @@
         <v>148677</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -2844,13 +2841,13 @@
         <v>126382</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>271</v>
@@ -2859,13 +2856,13 @@
         <v>275059</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2930,13 @@
         <v>1067371</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>1176</v>
@@ -2948,13 +2945,13 @@
         <v>1300804</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>2197</v>
@@ -2963,13 +2960,13 @@
         <v>2368175</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2981,13 @@
         <v>533743</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H35" s="7">
         <v>554</v>
@@ -2999,7 +2996,7 @@
         <v>588165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>243</v>
@@ -3017,10 +3014,10 @@
         <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3032,13 @@
         <v>617773</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>580</v>
@@ -3050,13 +3047,13 @@
         <v>603212</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>1171</v>
@@ -3065,13 +3062,13 @@
         <v>1220985</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3083,13 @@
         <v>625919</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>550</v>
@@ -3101,13 +3098,13 @@
         <v>562697</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>1149</v>
@@ -3116,13 +3113,13 @@
         <v>1188616</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3134,13 @@
         <v>526300</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>460</v>
@@ -3152,13 +3149,13 @@
         <v>467390</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>957</v>
@@ -3167,13 +3164,13 @@
         <v>993690</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,7 +3226,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD22CA3-3539-4A4F-8782-5D03B7B59E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41410531-FC82-48F1-8BFF-DF6DDDDEDCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB1CF049-5E37-434F-A754-A237B76C74E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E394AEF-9325-4FB9-8102-8B80487BB9CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="265">
   <si>
     <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>19,17%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,724 +134,700 @@
     <t>18,82%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
   <si>
     <t>19,45%</t>
   </si>
   <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>12,18%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1266,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC339B16-9B44-4056-BB7D-291900670268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D3CC19-2115-47D1-959D-DC2B0269EDB7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1857,7 +1833,7 @@
         <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -1866,13 +1842,13 @@
         <v>81899</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -1881,13 +1857,13 @@
         <v>177787</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1878,13 @@
         <v>55823</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -1917,13 +1893,13 @@
         <v>58280</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -1932,13 +1908,13 @@
         <v>114103</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2039,7 @@
         <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -2072,13 +2048,13 @@
         <v>164794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>287</v>
@@ -2087,13 +2063,13 @@
         <v>309730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2084,13 @@
         <v>201483</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -2123,13 +2099,13 @@
         <v>201287</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>375</v>
@@ -2138,13 +2114,13 @@
         <v>402770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,10 +2138,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -2177,10 +2153,10 @@
         <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>360</v>
@@ -2189,13 +2165,13 @@
         <v>378428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,7 +2186,7 @@
         <v>175292</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>141</v>
@@ -2225,13 +2201,13 @@
         <v>138524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>297</v>
@@ -2240,10 +2216,10 @@
         <v>313816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>77</v>
@@ -2302,7 +2278,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2290,13 @@
         <v>213161</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>237</v>
@@ -2329,13 +2305,13 @@
         <v>262797</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>434</v>
@@ -2344,13 +2320,13 @@
         <v>475958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2341,13 @@
         <v>116496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>118</v>
@@ -2380,13 +2356,13 @@
         <v>124881</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>220</v>
@@ -2395,13 +2371,13 @@
         <v>241377</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2392,13 @@
         <v>144760</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -2431,7 +2407,7 @@
         <v>122591</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>168</v>
@@ -2497,13 +2473,13 @@
         <v>282992</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2494,13 @@
         <v>132106</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -2533,13 +2509,13 @@
         <v>133628</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>254</v>
@@ -2548,13 +2524,13 @@
         <v>265734</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2586,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2622,13 +2598,13 @@
         <v>311874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>367</v>
@@ -2637,13 +2613,13 @@
         <v>415524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -2652,13 +2628,13 @@
         <v>727398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2649,13 @@
         <v>149093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>171</v>
@@ -2688,13 +2664,13 @@
         <v>188339</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>318</v>
@@ -2703,13 +2679,13 @@
         <v>337433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2700,13 @@
         <v>156233</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>145</v>
@@ -2739,13 +2715,13 @@
         <v>151163</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>304</v>
@@ -2754,13 +2730,13 @@
         <v>307395</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,10 +2754,10 @@
         <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>146</v>
@@ -2790,13 +2766,13 @@
         <v>152266</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>307</v>
@@ -2805,13 +2781,13 @@
         <v>311067</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2802,13 @@
         <v>148677</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -2841,13 +2817,13 @@
         <v>126382</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>271</v>
@@ -2856,13 +2832,13 @@
         <v>275059</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2906,13 @@
         <v>1067371</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>1176</v>
@@ -2945,13 +2921,13 @@
         <v>1300804</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>2197</v>
@@ -2960,13 +2936,13 @@
         <v>2368175</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2957,13 @@
         <v>533743</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>554</v>
@@ -2996,13 +2972,13 @@
         <v>588165</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>1055</v>
@@ -3011,13 +2987,13 @@
         <v>1121907</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3008,13 @@
         <v>617773</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>580</v>
@@ -3047,13 +3023,13 @@
         <v>603212</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>1171</v>
@@ -3062,13 +3038,13 @@
         <v>1220985</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3059,13 @@
         <v>625919</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>550</v>
@@ -3098,13 +3074,13 @@
         <v>562697</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="M37" s="7">
         <v>1149</v>
@@ -3113,13 +3089,13 @@
         <v>1188616</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3110,13 @@
         <v>526300</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H38" s="7">
         <v>460</v>
@@ -3149,13 +3125,13 @@
         <v>467390</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M38" s="7">
         <v>957</v>
@@ -3164,13 +3140,13 @@
         <v>993690</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3202,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
